--- a/DMSNewVSale_2025-10-31_17-07.xlsx
+++ b/DMSNewVSale_2025-10-31_17-07.xlsx
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>17.0000</t>
+  </si>
+  <si>
+    <t>ISIS ينسون</t>
+  </si>
+  <si>
+    <t>18.50</t>
+  </si>
+  <si>
+    <t>18.5000</t>
   </si>
   <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
@@ -2135,13 +2144,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2201,7 +2210,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2211,11 +2220,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2227,14 +2236,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2244,14 +2253,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2267,7 +2276,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2300,7 +2309,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2310,14 +2319,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2326,14 +2335,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2343,14 +2352,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2366,7 +2375,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2380,10 +2389,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2392,14 +2401,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2413,10 +2422,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2425,14 +2434,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2442,14 +2451,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2458,14 +2467,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2482,7 +2491,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2498,7 +2507,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2531,7 +2540,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2541,11 +2550,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2557,14 +2566,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2574,14 +2583,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2590,14 +2599,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2607,14 +2616,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2623,14 +2632,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2640,11 +2649,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>15</v>
@@ -2656,20 +2665,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2680,7 +2689,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2696,7 +2705,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2706,7 +2715,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2729,7 +2738,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2739,14 +2748,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>165</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>134</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2788,14 +2797,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2805,14 +2814,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>15</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2821,14 +2830,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2838,14 +2847,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2854,14 +2863,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2875,7 +2884,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>29</v>
@@ -2887,14 +2896,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2904,14 +2913,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>154</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2920,14 +2929,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2937,14 +2946,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2953,14 +2962,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2970,11 +2979,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>29</v>
@@ -2993,7 +3002,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3003,11 +3012,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>29</v>
@@ -3019,14 +3028,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3036,51 +3045,84 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
       </c>
     </row>
-    <row r="63" ht="25.5" customHeight="1">
-      <c r="N63" s="13">
-        <v>2579.8600000000001</v>
-      </c>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>183</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>184</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>185</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>71</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>27</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>148</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" ht="26.25" customHeight="1">
+      <c r="N64" s="13">
+        <v>2598.3600000000001</v>
+      </c>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>186</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>187</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>188</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3369,10 +3411,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
